--- a/Tasks/Lab_01/LAB_01.xlsx
+++ b/Tasks/Lab_01/LAB_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SDR\Tasks\Lab_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE3564B-8A0B-49C4-BC7D-A601EC805E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E471340C-6390-4504-82CF-5A2BA802B7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Среднее арифметическое:</t>
   </si>
@@ -73,37 +73,10 @@
     <t>max:</t>
   </si>
   <si>
-    <t>3 - 4</t>
-  </si>
-  <si>
-    <t>4 - 5</t>
-  </si>
-  <si>
-    <t>5 - 6</t>
-  </si>
-  <si>
-    <t>6 - 7</t>
-  </si>
-  <si>
-    <t>7 - 8</t>
-  </si>
-  <si>
-    <t>8 - 9</t>
-  </si>
-  <si>
-    <t>9 - 10</t>
-  </si>
-  <si>
-    <t>10 - 11</t>
-  </si>
-  <si>
     <t>Кол-во значений:</t>
   </si>
   <si>
     <t>Интервалы:</t>
-  </si>
-  <si>
-    <t>(ОКРУГЛВНИЗ(I1:0) - 20)</t>
   </si>
 </sst>
 </file>
@@ -171,10 +144,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -602,7 +575,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -686,9 +659,36 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1942631519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -762,6 +762,1204 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Эмпирическая функция распределения</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.8426106708889074E-2"/>
+          <c:y val="8.5394845638564226E-2"/>
+          <c:w val="0.93281074940422726"/>
+          <c:h val="0.78820383168490948"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="none"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$J:$J</c:f>
+              <c:strCache>
+                <c:ptCount val="241"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$H$1:$H$251</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="251"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.52499999999999991</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.52499999999999991</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.52499999999999991</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.52499999999999991</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.52499999999999991</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.52499999999999991</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.52499999999999991</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.52499999999999991</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.52499999999999991</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.52499999999999991</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-05EE-4D24-9C39-53FC7B7D7072}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="793410976"/>
+        <c:axId val="469646432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="793410976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t> Варианты</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469646432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="469646432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="793410976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -1316,6 +2514,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1924,6 +3162,574 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2497,16 +4303,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>385762</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>214312</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2526,6 +4332,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>16566</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E30B6F9A-415B-0B87-1833-979E84849497}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2838,14 +4680,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W251"/>
+  <dimension ref="A1:W246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2853,11 +4696,11 @@
       <c r="A1">
         <v>25</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="4">
         <f>MIN(A:A)</f>
         <v>20</v>
       </c>
-      <c r="C1" s="5" cm="1">
+      <c r="C1" s="4" cm="1">
         <f t="array" ref="C1:C41">FREQUENCY(A:A,B:B)</f>
         <v>1</v>
       </c>
@@ -2865,22 +4708,27 @@
         <f>IF(C1&gt;0,B1,"")</f>
         <v>20</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <f>C1/40</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <f>SUM($C$1:C1)</f>
         <v>1</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="4">
         <f>SUM($E$1:E1)</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H1" t="s">
-        <v>14</v>
+      <c r="H1" cm="1">
+        <f t="array" ref="H1">INDEX(G:G,ROUNDDOWN(I1, 0) - 19, 1)</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I1">
+        <v>20</v>
+      </c>
+      <c r="J1">
+        <f t="shared" ref="J1:J64" si="0">IF(MOD(ROUND(I1, 2)*10, 10) = 0,I1,"")</f>
         <v>20</v>
       </c>
       <c r="W1">
@@ -2892,31 +4740,39 @@
       <c r="A2">
         <v>23</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <f>B1+1</f>
         <v>21</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D41" si="0">IF(C2&gt;0,B2,"")</f>
+        <f t="shared" ref="D2:D41" si="1">IF(C2&gt;0,B2,"")</f>
         <v>21</v>
       </c>
-      <c r="E2" s="5">
-        <f t="shared" ref="E2:E25" si="1">C2/40</f>
+      <c r="E2" s="4">
+        <f t="shared" ref="E2:E25" si="2">C2/40</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <f>SUM($C$1:C2)</f>
         <v>2</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <f>SUM($E$1:E2)</f>
         <v>0.05</v>
       </c>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2">INDEX(G:G,ROUNDDOWN(I2, 0) - 19, 1)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="I2">
         <v>20.100000000000001</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="T2" s="1" t="s">
         <v>0</v>
@@ -2926,7 +4782,7 @@
         <v>30.524999999999999</v>
       </c>
       <c r="W2">
-        <f t="shared" ref="W2:W40" si="2">($U$2 - A2)^2</f>
+        <f t="shared" ref="W2:W40" si="3">($U$2 - A2)^2</f>
         <v>56.625624999999978</v>
       </c>
     </row>
@@ -2934,31 +4790,39 @@
       <c r="A3">
         <v>20</v>
       </c>
-      <c r="B3" s="5">
-        <f t="shared" ref="B3:B40" si="3">B2+1</f>
+      <c r="B3" s="4">
+        <f t="shared" ref="B3:B40" si="4">B2+1</f>
         <v>22</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="E3" s="5">
-        <f t="shared" si="1"/>
+      <c r="E3" s="4">
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f>SUM($C$1:C3)</f>
         <v>4</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <f>SUM($E$1:E3)</f>
         <v>0.1</v>
       </c>
+      <c r="H3" cm="1">
+        <f t="array" ref="H3">INDEX(G:G,ROUNDDOWN(I3, 0) - 19, 1)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="I3">
         <v>20.2</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="T3" s="1" t="s">
         <v>1</v>
@@ -2976,34 +4840,42 @@
       <c r="A4">
         <v>23</v>
       </c>
-      <c r="B4" s="5">
-        <f t="shared" si="3"/>
+      <c r="B4" s="4">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>14</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="E4" s="5">
-        <f t="shared" si="1"/>
+      <c r="E4" s="4">
+        <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f>SUM($C$1:C4)</f>
         <v>18</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f>SUM($E$1:E4)</f>
         <v>0.44999999999999996</v>
       </c>
+      <c r="H4" cm="1">
+        <f t="array" ref="H4">INDEX(G:G,ROUNDDOWN(I4, 0) - 19, 1)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="I4">
         <v>20.3</v>
       </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.625624999999978</v>
       </c>
     </row>
@@ -3011,34 +4883,42 @@
       <c r="A5">
         <v>23</v>
       </c>
-      <c r="B5" s="5">
-        <f t="shared" si="3"/>
+      <c r="B5" s="4">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E5" s="5">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f>SUM($C$1:C5)</f>
         <v>18</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f>SUM($E$1:E5)</f>
         <v>0.44999999999999996</v>
       </c>
+      <c r="H5" cm="1">
+        <f t="array" ref="H5">INDEX(G:G,ROUNDDOWN(I5, 0) - 19, 1)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="I5">
         <v>20.399999999999999</v>
       </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.625624999999978</v>
       </c>
     </row>
@@ -3046,34 +4926,42 @@
       <c r="A6">
         <v>22</v>
       </c>
-      <c r="B6" s="5">
-        <f t="shared" si="3"/>
+      <c r="B6" s="4">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E6" s="5">
-        <f t="shared" si="1"/>
+      <c r="E6" s="4">
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f>SUM($C$1:C6)</f>
         <v>20</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f>SUM($E$1:E6)</f>
         <v>0.49999999999999994</v>
       </c>
+      <c r="H6" cm="1">
+        <f t="array" ref="H6">INDEX(G:G,ROUNDDOWN(I6, 0) - 19, 1)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="I6">
         <v>20.5</v>
       </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>72.675624999999982</v>
       </c>
     </row>
@@ -3081,34 +4969,42 @@
       <c r="A7">
         <v>21</v>
       </c>
-      <c r="B7" s="5">
-        <f t="shared" si="3"/>
+      <c r="B7" s="4">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E7" s="5">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f>SUM($C$1:C7)</f>
         <v>20</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f>SUM($E$1:E7)</f>
         <v>0.49999999999999994</v>
       </c>
+      <c r="H7" cm="1">
+        <f t="array" ref="H7">INDEX(G:G,ROUNDDOWN(I7, 0) - 19, 1)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="I7">
         <v>20.6</v>
       </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90.72562499999998</v>
       </c>
     </row>
@@ -3116,34 +5012,42 @@
       <c r="A8">
         <v>23</v>
       </c>
-      <c r="B8" s="5">
-        <f t="shared" si="3"/>
+      <c r="B8" s="4">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E8" s="5">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f>SUM($C$1:C8)</f>
         <v>20</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f>SUM($E$1:E8)</f>
         <v>0.49999999999999994</v>
       </c>
+      <c r="H8" cm="1">
+        <f t="array" ref="H8">INDEX(G:G,ROUNDDOWN(I8, 0) - 19, 1)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="I8">
         <v>20.7</v>
       </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.625624999999978</v>
       </c>
     </row>
@@ -3151,34 +5055,42 @@
       <c r="A9">
         <v>42</v>
       </c>
-      <c r="B9" s="5">
-        <f t="shared" si="3"/>
+      <c r="B9" s="4">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E9" s="5">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f>SUM($C$1:C9)</f>
         <v>20</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <f>SUM($E$1:E9)</f>
         <v>0.49999999999999994</v>
       </c>
+      <c r="H9" cm="1">
+        <f t="array" ref="H9">INDEX(G:G,ROUNDDOWN(I9, 0) - 19, 1)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="I9">
         <v>20.8</v>
       </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>131.67562500000003</v>
       </c>
     </row>
@@ -3186,34 +5098,42 @@
       <c r="A10">
         <v>23</v>
       </c>
-      <c r="B10" s="5">
-        <f t="shared" si="3"/>
+      <c r="B10" s="4">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E10" s="5">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <f>SUM($C$1:C10)</f>
         <v>20</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <f>SUM($E$1:E10)</f>
         <v>0.49999999999999994</v>
       </c>
+      <c r="H10" cm="1">
+        <f t="array" ref="H10">INDEX(G:G,ROUNDDOWN(I10, 0) - 19, 1)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="I10">
         <v>20.9</v>
       </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.625624999999978</v>
       </c>
     </row>
@@ -3221,34 +5141,42 @@
       <c r="A11">
         <v>43</v>
       </c>
-      <c r="B11" s="5">
-        <f t="shared" si="3"/>
+      <c r="B11" s="4">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>0</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E11" s="5">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <f>SUM($C$1:C11)</f>
         <v>20</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <f>SUM($E$1:E11)</f>
         <v>0.49999999999999994</v>
       </c>
+      <c r="H11" cm="1">
+        <f t="array" ref="H11">INDEX(G:G,ROUNDDOWN(I11, 0) - 19, 1)</f>
+        <v>0.05</v>
+      </c>
       <c r="I11">
         <v>21</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="W11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>155.62562500000004</v>
       </c>
     </row>
@@ -3256,34 +5184,42 @@
       <c r="A12">
         <v>23</v>
       </c>
-      <c r="B12" s="5">
-        <f t="shared" si="3"/>
+      <c r="B12" s="4">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E12" s="5">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <f>SUM($C$1:C12)</f>
         <v>20</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <f>SUM($E$1:E12)</f>
         <v>0.49999999999999994</v>
       </c>
+      <c r="H12" cm="1">
+        <f t="array" ref="H12">INDEX(G:G,ROUNDDOWN(I12, 0) - 19, 1)</f>
+        <v>0.05</v>
+      </c>
       <c r="I12">
         <v>21.1</v>
       </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.625624999999978</v>
       </c>
     </row>
@@ -3291,34 +5227,42 @@
       <c r="A13">
         <v>34</v>
       </c>
-      <c r="B13" s="5">
-        <f t="shared" si="3"/>
+      <c r="B13" s="4">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="E13" s="5">
-        <f t="shared" si="1"/>
+      <c r="E13" s="4">
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <f>SUM($C$1:C13)</f>
         <v>21</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <f>SUM($E$1:E13)</f>
         <v>0.52499999999999991</v>
       </c>
+      <c r="H13" cm="1">
+        <f t="array" ref="H13">INDEX(G:G,ROUNDDOWN(I13, 0) - 19, 1)</f>
+        <v>0.05</v>
+      </c>
       <c r="I13">
         <v>21.2</v>
       </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.075625000000009</v>
       </c>
     </row>
@@ -3326,34 +5270,42 @@
       <c r="A14">
         <v>34</v>
       </c>
-      <c r="B14" s="5">
-        <f t="shared" si="3"/>
+      <c r="B14" s="4">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="E14" s="5">
-        <f t="shared" si="1"/>
+      <c r="E14" s="4">
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <f>SUM($C$1:C14)</f>
         <v>23</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <f>SUM($E$1:E14)</f>
         <v>0.57499999999999996</v>
       </c>
+      <c r="H14" cm="1">
+        <f t="array" ref="H14">INDEX(G:G,ROUNDDOWN(I14, 0) - 19, 1)</f>
+        <v>0.05</v>
+      </c>
       <c r="I14">
         <v>21.3</v>
       </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.075625000000009</v>
       </c>
     </row>
@@ -3361,34 +5313,42 @@
       <c r="A15">
         <v>32</v>
       </c>
-      <c r="B15" s="5">
-        <f t="shared" si="3"/>
+      <c r="B15" s="4">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>5</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="E15" s="5">
-        <f t="shared" si="1"/>
+      <c r="E15" s="4">
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <f>SUM($C$1:C15)</f>
         <v>28</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <f>SUM($E$1:E15)</f>
         <v>0.7</v>
       </c>
+      <c r="H15" cm="1">
+        <f t="array" ref="H15">INDEX(G:G,ROUNDDOWN(I15, 0) - 19, 1)</f>
+        <v>0.05</v>
+      </c>
       <c r="I15">
         <v>21.4</v>
       </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1756250000000041</v>
       </c>
     </row>
@@ -3396,34 +5356,42 @@
       <c r="A16">
         <v>34</v>
       </c>
-      <c r="B16" s="5">
-        <f t="shared" si="3"/>
+      <c r="B16" s="4">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>1</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="E16" s="5">
-        <f t="shared" si="1"/>
+      <c r="E16" s="4">
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <f>SUM($C$1:C16)</f>
         <v>29</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <f>SUM($E$1:E16)</f>
         <v>0.72499999999999998</v>
       </c>
+      <c r="H16" cm="1">
+        <f t="array" ref="H16">INDEX(G:G,ROUNDDOWN(I16, 0) - 19, 1)</f>
+        <v>0.05</v>
+      </c>
       <c r="I16">
         <v>21.5</v>
       </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.075625000000009</v>
       </c>
     </row>
@@ -3431,34 +5399,42 @@
       <c r="A17">
         <v>43</v>
       </c>
-      <c r="B17" s="5">
-        <f t="shared" si="3"/>
+      <c r="B17" s="4">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>1</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="E17" s="5">
-        <f t="shared" si="1"/>
+      <c r="E17" s="4">
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <f>SUM($C$1:C17)</f>
         <v>30</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <f>SUM($E$1:E17)</f>
         <v>0.75</v>
       </c>
+      <c r="H17" cm="1">
+        <f t="array" ref="H17">INDEX(G:G,ROUNDDOWN(I17, 0) - 19, 1)</f>
+        <v>0.05</v>
+      </c>
       <c r="I17">
         <v>21.6</v>
       </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>155.62562500000004</v>
       </c>
     </row>
@@ -3466,34 +5442,42 @@
       <c r="A18">
         <v>23</v>
       </c>
-      <c r="B18" s="5">
-        <f t="shared" si="3"/>
+      <c r="B18" s="4">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>0</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E18" s="5">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <f>SUM($C$1:C18)</f>
         <v>30</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <f>SUM($E$1:E18)</f>
         <v>0.75</v>
       </c>
+      <c r="H18" cm="1">
+        <f t="array" ref="H18">INDEX(G:G,ROUNDDOWN(I18, 0) - 19, 1)</f>
+        <v>0.05</v>
+      </c>
       <c r="I18">
         <v>21.7</v>
       </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.625624999999978</v>
       </c>
     </row>
@@ -3501,34 +5485,42 @@
       <c r="A19">
         <v>44</v>
       </c>
-      <c r="B19" s="5">
-        <f t="shared" si="3"/>
+      <c r="B19" s="4">
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>0</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E19" s="5">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <f>SUM($C$1:C19)</f>
         <v>30</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <f>SUM($E$1:E19)</f>
         <v>0.75</v>
       </c>
+      <c r="H19" cm="1">
+        <f t="array" ref="H19">INDEX(G:G,ROUNDDOWN(I19, 0) - 19, 1)</f>
+        <v>0.05</v>
+      </c>
       <c r="I19">
         <v>21.8</v>
       </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>181.57562500000003</v>
       </c>
     </row>
@@ -3536,34 +5528,42 @@
       <c r="A20">
         <v>23</v>
       </c>
-      <c r="B20" s="5">
-        <f t="shared" si="3"/>
+      <c r="B20" s="4">
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>0</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E20" s="5">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <f>SUM($C$1:C20)</f>
         <v>30</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <f>SUM($E$1:E20)</f>
         <v>0.75</v>
       </c>
+      <c r="H20" cm="1">
+        <f t="array" ref="H20">INDEX(G:G,ROUNDDOWN(I20, 0) - 19, 1)</f>
+        <v>0.05</v>
+      </c>
       <c r="I20">
         <v>21.9</v>
       </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.625624999999978</v>
       </c>
     </row>
@@ -3571,34 +5571,42 @@
       <c r="A21">
         <v>23</v>
       </c>
-      <c r="B21" s="5">
-        <f t="shared" si="3"/>
+      <c r="B21" s="4">
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>0</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E21" s="5">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <f>SUM($C$1:C21)</f>
         <v>30</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <f>SUM($E$1:E21)</f>
         <v>0.75</v>
       </c>
+      <c r="H21" cm="1">
+        <f t="array" ref="H21">INDEX(G:G,ROUNDDOWN(I21, 0) - 19, 1)</f>
+        <v>0.1</v>
+      </c>
       <c r="I21">
         <v>22</v>
       </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
       <c r="W21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.625624999999978</v>
       </c>
     </row>
@@ -3606,34 +5614,42 @@
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="5">
-        <f t="shared" si="3"/>
+      <c r="B22" s="4">
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>1</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="E22" s="5">
-        <f t="shared" si="1"/>
+      <c r="E22" s="4">
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <f>SUM($C$1:C22)</f>
         <v>31</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <f>SUM($E$1:E22)</f>
         <v>0.77500000000000002</v>
       </c>
+      <c r="H22" cm="1">
+        <f t="array" ref="H22">INDEX(G:G,ROUNDDOWN(I22, 0) - 19, 1)</f>
+        <v>0.1</v>
+      </c>
       <c r="I22">
         <v>22.1</v>
       </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>72.675624999999982</v>
       </c>
     </row>
@@ -3641,34 +5657,42 @@
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" s="5">
-        <f t="shared" si="3"/>
+      <c r="B23" s="4">
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>4</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="E23" s="5">
-        <f t="shared" si="1"/>
+      <c r="E23" s="4">
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <f>SUM($C$1:C23)</f>
         <v>35</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <f>SUM($E$1:E23)</f>
         <v>0.875</v>
       </c>
+      <c r="H23" cm="1">
+        <f t="array" ref="H23">INDEX(G:G,ROUNDDOWN(I23, 0) - 19, 1)</f>
+        <v>0.1</v>
+      </c>
       <c r="I23">
         <v>22.2</v>
       </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.625624999999978</v>
       </c>
     </row>
@@ -3676,34 +5700,42 @@
       <c r="A24">
         <v>43</v>
       </c>
-      <c r="B24" s="5">
-        <f t="shared" si="3"/>
+      <c r="B24" s="4">
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>4</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="E24" s="5">
-        <f t="shared" si="1"/>
+      <c r="E24" s="4">
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <f>SUM($C$1:C24)</f>
         <v>39</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <f>SUM($E$1:E24)</f>
         <v>0.97499999999999998</v>
       </c>
+      <c r="H24" cm="1">
+        <f t="array" ref="H24">INDEX(G:G,ROUNDDOWN(I24, 0) - 19, 1)</f>
+        <v>0.1</v>
+      </c>
       <c r="I24">
         <v>22.3</v>
       </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>155.62562500000004</v>
       </c>
     </row>
@@ -3711,34 +5743,42 @@
       <c r="A25">
         <v>43</v>
       </c>
-      <c r="B25" s="5">
-        <f t="shared" si="3"/>
+      <c r="B25" s="4">
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>1</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="E25" s="5">
-        <f t="shared" si="1"/>
+      <c r="E25" s="4">
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <f>SUM($C$1:C25)</f>
         <v>40</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="4">
         <f>SUM($E$1:E25)</f>
         <v>1</v>
       </c>
+      <c r="H25" cm="1">
+        <f t="array" ref="H25">INDEX(G:G,ROUNDDOWN(I25, 0) - 19, 1)</f>
+        <v>0.1</v>
+      </c>
       <c r="I25">
         <v>22.4</v>
       </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>155.62562500000004</v>
       </c>
     </row>
@@ -3747,21 +5787,29 @@
         <v>42</v>
       </c>
       <c r="B26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H26" cm="1">
+        <f t="array" ref="H26">INDEX(G:G,ROUNDDOWN(I26, 0) - 19, 1)</f>
+        <v>0.1</v>
       </c>
       <c r="I26">
         <v>22.5</v>
       </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>131.67562500000003</v>
       </c>
     </row>
@@ -3770,21 +5818,29 @@
         <v>42</v>
       </c>
       <c r="B27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H27" cm="1">
+        <f t="array" ref="H27">INDEX(G:G,ROUNDDOWN(I27, 0) - 19, 1)</f>
+        <v>0.1</v>
       </c>
       <c r="I27">
         <v>22.6</v>
       </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>131.67562500000003</v>
       </c>
     </row>
@@ -3793,21 +5849,29 @@
         <v>41</v>
       </c>
       <c r="B28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H28" cm="1">
+        <f t="array" ref="H28">INDEX(G:G,ROUNDDOWN(I28, 0) - 19, 1)</f>
+        <v>0.1</v>
       </c>
       <c r="I28">
         <v>22.7</v>
       </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>109.72562500000004</v>
       </c>
     </row>
@@ -3816,21 +5880,29 @@
         <v>23</v>
       </c>
       <c r="B29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H29" cm="1">
+        <f t="array" ref="H29">INDEX(G:G,ROUNDDOWN(I29, 0) - 19, 1)</f>
+        <v>0.1</v>
       </c>
       <c r="I29">
         <v>22.8</v>
       </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.625624999999978</v>
       </c>
     </row>
@@ -3839,21 +5911,29 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H30" cm="1">
+        <f t="array" ref="H30">INDEX(G:G,ROUNDDOWN(I30, 0) - 19, 1)</f>
+        <v>0.1</v>
       </c>
       <c r="I30">
         <v>22.9</v>
       </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.075625000000009</v>
       </c>
     </row>
@@ -3862,21 +5942,29 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H31" cm="1">
+        <f t="array" ref="H31">INDEX(G:G,ROUNDDOWN(I31, 0) - 19, 1)</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="I31">
         <v>23</v>
       </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="W31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.025625000000012</v>
       </c>
     </row>
@@ -3885,21 +5973,29 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H32" cm="1">
+        <f t="array" ref="H32">INDEX(G:G,ROUNDDOWN(I32, 0) - 19, 1)</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="I32">
         <v>23.1</v>
       </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.975625000000015</v>
       </c>
     </row>
@@ -3908,21 +6004,29 @@
         <v>23</v>
       </c>
       <c r="B33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H33" cm="1">
+        <f t="array" ref="H33">INDEX(G:G,ROUNDDOWN(I33, 0) - 19, 1)</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="I33">
         <v>23.2</v>
       </c>
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.625624999999978</v>
       </c>
     </row>
@@ -3931,21 +6035,29 @@
         <v>23</v>
       </c>
       <c r="B34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H34" cm="1">
+        <f t="array" ref="H34">INDEX(G:G,ROUNDDOWN(I34, 0) - 19, 1)</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="I34">
         <v>23.3000000000001</v>
       </c>
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.625624999999978</v>
       </c>
     </row>
@@ -3954,21 +6066,29 @@
         <v>23</v>
       </c>
       <c r="B35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H35" cm="1">
+        <f t="array" ref="H35">INDEX(G:G,ROUNDDOWN(I35, 0) - 19, 1)</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="I35">
         <v>23.4</v>
       </c>
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56.625624999999978</v>
       </c>
     </row>
@@ -3977,21 +6097,29 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H36" cm="1">
+        <f t="array" ref="H36">INDEX(G:G,ROUNDDOWN(I36, 0) - 19, 1)</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="I36">
         <v>23.5</v>
       </c>
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>131.67562500000003</v>
       </c>
     </row>
@@ -4000,21 +6128,29 @@
         <v>25</v>
       </c>
       <c r="B37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H37" cm="1">
+        <f t="array" ref="H37">INDEX(G:G,ROUNDDOWN(I37, 0) - 19, 1)</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="I37">
         <v>23.600000000000101</v>
       </c>
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.525624999999984</v>
       </c>
     </row>
@@ -4023,21 +6159,29 @@
         <v>34</v>
       </c>
       <c r="B38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H38" cm="1">
+        <f t="array" ref="H38">INDEX(G:G,ROUNDDOWN(I38, 0) - 19, 1)</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="I38">
         <v>23.7</v>
       </c>
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.075625000000009</v>
       </c>
     </row>
@@ -4046,21 +6190,29 @@
         <v>33</v>
       </c>
       <c r="B39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H39" cm="1">
+        <f t="array" ref="H39">INDEX(G:G,ROUNDDOWN(I39, 0) - 19, 1)</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="I39">
         <v>23.8000000000001</v>
       </c>
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.1256250000000074</v>
       </c>
     </row>
@@ -4069,21 +6221,29 @@
         <v>33</v>
       </c>
       <c r="B40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H40" cm="1">
+        <f t="array" ref="H40">INDEX(G:G,ROUNDDOWN(I40, 0) - 19, 1)</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="I40">
         <v>23.900000000000102</v>
       </c>
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="W40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.1256250000000074</v>
       </c>
     </row>
@@ -4092,1061 +6252,2684 @@
         <v>0</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H41" cm="1">
+        <f t="array" ref="H41">INDEX(G:G,ROUNDDOWN(I41, 0) - 19, 1)</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="I41">
         <v>24.000000000000099</v>
       </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>24.000000000000099</v>
+      </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H42" cm="1">
+        <f t="array" ref="H42">INDEX(G:G,ROUNDDOWN(I42, 0) - 19, 1)</f>
+        <v>0.44999999999999996</v>
+      </c>
       <c r="I42">
         <v>24.100000000000101</v>
       </c>
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H43" cm="1">
+        <f t="array" ref="H43">INDEX(G:G,ROUNDDOWN(I43, 0) - 19, 1)</f>
+        <v>0.44999999999999996</v>
+      </c>
       <c r="I43">
         <v>24.200000000000099</v>
       </c>
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H44" cm="1">
+        <f t="array" ref="H44">INDEX(G:G,ROUNDDOWN(I44, 0) - 19, 1)</f>
+        <v>0.44999999999999996</v>
+      </c>
       <c r="I44">
         <v>24.3000000000001</v>
       </c>
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H45" cm="1">
+        <f t="array" ref="H45">INDEX(G:G,ROUNDDOWN(I45, 0) - 19, 1)</f>
+        <v>0.44999999999999996</v>
+      </c>
       <c r="I45">
         <v>24.400000000000102</v>
       </c>
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H46" cm="1">
+        <f t="array" ref="H46">INDEX(G:G,ROUNDDOWN(I46, 0) - 19, 1)</f>
+        <v>0.44999999999999996</v>
+      </c>
       <c r="I46">
         <v>24.500000000000099</v>
       </c>
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H47" cm="1">
+        <f t="array" ref="H47">INDEX(G:G,ROUNDDOWN(I47, 0) - 19, 1)</f>
+        <v>0.44999999999999996</v>
+      </c>
       <c r="I47">
         <v>24.600000000000101</v>
       </c>
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H48" cm="1">
+        <f t="array" ref="H48">INDEX(G:G,ROUNDDOWN(I48, 0) - 19, 1)</f>
+        <v>0.44999999999999996</v>
+      </c>
       <c r="I48">
         <v>24.700000000000099</v>
       </c>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H49" cm="1">
+        <f t="array" ref="H49">INDEX(G:G,ROUNDDOWN(I49, 0) - 19, 1)</f>
+        <v>0.44999999999999996</v>
+      </c>
       <c r="I49">
         <v>24.8000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H50" cm="1">
+        <f t="array" ref="H50">INDEX(G:G,ROUNDDOWN(I50, 0) - 19, 1)</f>
+        <v>0.44999999999999996</v>
+      </c>
       <c r="I50">
         <v>24.900000000000102</v>
       </c>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H51" cm="1">
+        <f t="array" ref="H51">INDEX(G:G,ROUNDDOWN(I51, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I51">
         <v>25.000000000000099</v>
       </c>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>25.000000000000099</v>
+      </c>
+    </row>
+    <row r="52" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H52" cm="1">
+        <f t="array" ref="H52">INDEX(G:G,ROUNDDOWN(I52, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I52">
         <v>25.100000000000101</v>
       </c>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H53" cm="1">
+        <f t="array" ref="H53">INDEX(G:G,ROUNDDOWN(I53, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I53">
         <v>25.200000000000099</v>
       </c>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H54" cm="1">
+        <f t="array" ref="H54">INDEX(G:G,ROUNDDOWN(I54, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I54">
         <v>25.3000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H55" cm="1">
+        <f t="array" ref="H55">INDEX(G:G,ROUNDDOWN(I55, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I55">
         <v>25.400000000000102</v>
       </c>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H56" cm="1">
+        <f t="array" ref="H56">INDEX(G:G,ROUNDDOWN(I56, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I56">
         <v>25.500000000000099</v>
       </c>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H57" cm="1">
+        <f t="array" ref="H57">INDEX(G:G,ROUNDDOWN(I57, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I57">
         <v>25.600000000000101</v>
       </c>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H58" cm="1">
+        <f t="array" ref="H58">INDEX(G:G,ROUNDDOWN(I58, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I58">
         <v>25.700000000000099</v>
       </c>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H59" cm="1">
+        <f t="array" ref="H59">INDEX(G:G,ROUNDDOWN(I59, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I59">
         <v>25.8000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H60" cm="1">
+        <f t="array" ref="H60">INDEX(G:G,ROUNDDOWN(I60, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I60">
         <v>25.900000000000102</v>
       </c>
-    </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H61" cm="1">
+        <f t="array" ref="H61">INDEX(G:G,ROUNDDOWN(I61, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I61">
         <v>26.000000000000099</v>
       </c>
-    </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>26.000000000000099</v>
+      </c>
+    </row>
+    <row r="62" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H62" cm="1">
+        <f t="array" ref="H62">INDEX(G:G,ROUNDDOWN(I62, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I62">
         <v>26.100000000000101</v>
       </c>
-    </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H63" cm="1">
+        <f t="array" ref="H63">INDEX(G:G,ROUNDDOWN(I63, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I63">
         <v>26.200000000000099</v>
       </c>
-    </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H64" cm="1">
+        <f t="array" ref="H64">INDEX(G:G,ROUNDDOWN(I64, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I64">
         <v>26.3000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H65" cm="1">
+        <f t="array" ref="H65">INDEX(G:G,ROUNDDOWN(I65, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I65">
         <v>26.400000000000102</v>
       </c>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J65" t="str">
+        <f t="shared" ref="J65:J128" si="5">IF(MOD(ROUND(I65, 2)*10, 10) = 0,I65,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H66" cm="1">
+        <f t="array" ref="H66">INDEX(G:G,ROUNDDOWN(I66, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I66">
         <v>26.500000000000099</v>
       </c>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J66" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H67" cm="1">
+        <f t="array" ref="H67">INDEX(G:G,ROUNDDOWN(I67, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I67">
         <v>26.600000000000101</v>
       </c>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J67" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H68" cm="1">
+        <f t="array" ref="H68">INDEX(G:G,ROUNDDOWN(I68, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I68">
         <v>26.700000000000099</v>
       </c>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J68" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H69" cm="1">
+        <f t="array" ref="H69">INDEX(G:G,ROUNDDOWN(I69, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I69">
         <v>26.8000000000001</v>
       </c>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J69" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H70" cm="1">
+        <f t="array" ref="H70">INDEX(G:G,ROUNDDOWN(I70, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I70">
         <v>26.900000000000102</v>
       </c>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J70" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H71" cm="1">
+        <f t="array" ref="H71">INDEX(G:G,ROUNDDOWN(I71, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I71">
         <v>27.000000000000099</v>
       </c>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <f t="shared" si="5"/>
+        <v>27.000000000000099</v>
+      </c>
+    </row>
+    <row r="72" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H72" cm="1">
+        <f t="array" ref="H72">INDEX(G:G,ROUNDDOWN(I72, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I72">
         <v>27.100000000000101</v>
       </c>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J72" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H73" cm="1">
+        <f t="array" ref="H73">INDEX(G:G,ROUNDDOWN(I73, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I73">
         <v>27.200000000000099</v>
       </c>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J73" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H74" cm="1">
+        <f t="array" ref="H74">INDEX(G:G,ROUNDDOWN(I74, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I74">
         <v>27.3000000000001</v>
       </c>
-    </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H75" cm="1">
+        <f t="array" ref="H75">INDEX(G:G,ROUNDDOWN(I75, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I75">
         <v>27.400000000000102</v>
       </c>
-    </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J75" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H76" cm="1">
+        <f t="array" ref="H76">INDEX(G:G,ROUNDDOWN(I76, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I76">
         <v>27.500000000000099</v>
       </c>
-    </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J76" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H77" cm="1">
+        <f t="array" ref="H77">INDEX(G:G,ROUNDDOWN(I77, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I77">
         <v>27.600000000000101</v>
       </c>
-    </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J77" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H78" cm="1">
+        <f t="array" ref="H78">INDEX(G:G,ROUNDDOWN(I78, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I78">
         <v>27.700000000000099</v>
       </c>
-    </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J78" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H79" cm="1">
+        <f t="array" ref="H79">INDEX(G:G,ROUNDDOWN(I79, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I79">
         <v>27.8000000000001</v>
       </c>
-    </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J79" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H80" cm="1">
+        <f t="array" ref="H80">INDEX(G:G,ROUNDDOWN(I80, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I80">
         <v>27.900000000000102</v>
       </c>
-    </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J80" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H81" cm="1">
+        <f t="array" ref="H81">INDEX(G:G,ROUNDDOWN(I81, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I81">
         <v>28.000000000000099</v>
       </c>
-    </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J81">
+        <f t="shared" si="5"/>
+        <v>28.000000000000099</v>
+      </c>
+    </row>
+    <row r="82" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H82" cm="1">
+        <f t="array" ref="H82">INDEX(G:G,ROUNDDOWN(I82, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I82">
         <v>28.100000000000101</v>
       </c>
-    </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J82" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H83" cm="1">
+        <f t="array" ref="H83">INDEX(G:G,ROUNDDOWN(I83, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I83">
         <v>28.200000000000099</v>
       </c>
-    </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J83" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H84" cm="1">
+        <f t="array" ref="H84">INDEX(G:G,ROUNDDOWN(I84, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I84">
         <v>28.3000000000001</v>
       </c>
-    </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J84" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H85" cm="1">
+        <f t="array" ref="H85">INDEX(G:G,ROUNDDOWN(I85, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I85">
         <v>28.400000000000102</v>
       </c>
-    </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J85" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H86" cm="1">
+        <f t="array" ref="H86">INDEX(G:G,ROUNDDOWN(I86, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I86">
         <v>28.500000000000099</v>
       </c>
-    </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J86" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H87" cm="1">
+        <f t="array" ref="H87">INDEX(G:G,ROUNDDOWN(I87, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I87">
         <v>28.600000000000101</v>
       </c>
-    </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J87" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H88" cm="1">
+        <f t="array" ref="H88">INDEX(G:G,ROUNDDOWN(I88, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I88">
         <v>28.700000000000099</v>
       </c>
-    </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J88" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H89" cm="1">
+        <f t="array" ref="H89">INDEX(G:G,ROUNDDOWN(I89, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I89">
         <v>28.8000000000001</v>
       </c>
-    </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J89" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H90" cm="1">
+        <f t="array" ref="H90">INDEX(G:G,ROUNDDOWN(I90, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I90">
         <v>28.900000000000102</v>
       </c>
-    </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J90" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H91" cm="1">
+        <f t="array" ref="H91">INDEX(G:G,ROUNDDOWN(I91, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I91">
         <v>29.000000000000099</v>
       </c>
-    </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J91">
+        <f t="shared" si="5"/>
+        <v>29.000000000000099</v>
+      </c>
+    </row>
+    <row r="92" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H92" cm="1">
+        <f t="array" ref="H92">INDEX(G:G,ROUNDDOWN(I92, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I92">
         <v>29.100000000000101</v>
       </c>
-    </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J92" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H93" cm="1">
+        <f t="array" ref="H93">INDEX(G:G,ROUNDDOWN(I93, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I93">
         <v>29.200000000000099</v>
       </c>
-    </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J93" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H94" cm="1">
+        <f t="array" ref="H94">INDEX(G:G,ROUNDDOWN(I94, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I94">
         <v>29.3000000000001</v>
       </c>
-    </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J94" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H95" cm="1">
+        <f t="array" ref="H95">INDEX(G:G,ROUNDDOWN(I95, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I95">
         <v>29.400000000000102</v>
       </c>
-    </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J95" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H96" cm="1">
+        <f t="array" ref="H96">INDEX(G:G,ROUNDDOWN(I96, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I96">
         <v>29.500000000000099</v>
       </c>
-    </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J96" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H97" cm="1">
+        <f t="array" ref="H97">INDEX(G:G,ROUNDDOWN(I97, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I97">
         <v>29.600000000000101</v>
       </c>
-    </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J97" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H98" cm="1">
+        <f t="array" ref="H98">INDEX(G:G,ROUNDDOWN(I98, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I98">
         <v>29.700000000000099</v>
       </c>
-    </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J98" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H99" cm="1">
+        <f t="array" ref="H99">INDEX(G:G,ROUNDDOWN(I99, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I99">
         <v>29.8000000000001</v>
       </c>
-    </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J99" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H100" cm="1">
+        <f t="array" ref="H100">INDEX(G:G,ROUNDDOWN(I100, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I100">
         <v>29.900000000000102</v>
       </c>
-    </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J100" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H101" cm="1">
+        <f t="array" ref="H101">INDEX(G:G,ROUNDDOWN(I101, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I101">
         <v>30.000000000000099</v>
       </c>
-    </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J101">
+        <f t="shared" si="5"/>
+        <v>30.000000000000099</v>
+      </c>
+    </row>
+    <row r="102" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H102" cm="1">
+        <f t="array" ref="H102">INDEX(G:G,ROUNDDOWN(I102, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I102">
         <v>30.100000000000101</v>
       </c>
-    </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J102" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H103" cm="1">
+        <f t="array" ref="H103">INDEX(G:G,ROUNDDOWN(I103, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I103">
         <v>30.200000000000099</v>
       </c>
-    </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J103" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H104" cm="1">
+        <f t="array" ref="H104">INDEX(G:G,ROUNDDOWN(I104, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I104">
         <v>30.3000000000001</v>
       </c>
-    </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J104" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H105" cm="1">
+        <f t="array" ref="H105">INDEX(G:G,ROUNDDOWN(I105, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I105">
         <v>30.400000000000102</v>
       </c>
-    </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J105" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H106" cm="1">
+        <f t="array" ref="H106">INDEX(G:G,ROUNDDOWN(I106, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I106">
         <v>30.500000000000099</v>
       </c>
-    </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J106" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H107" cm="1">
+        <f t="array" ref="H107">INDEX(G:G,ROUNDDOWN(I107, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I107">
         <v>30.6000000000002</v>
       </c>
-    </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J107" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H108" cm="1">
+        <f t="array" ref="H108">INDEX(G:G,ROUNDDOWN(I108, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I108">
         <v>30.700000000000198</v>
       </c>
-    </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J108" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H109" cm="1">
+        <f t="array" ref="H109">INDEX(G:G,ROUNDDOWN(I109, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I109">
         <v>30.8000000000002</v>
       </c>
-    </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H110" cm="1">
+        <f t="array" ref="H110">INDEX(G:G,ROUNDDOWN(I110, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I110">
         <v>30.900000000000201</v>
       </c>
-    </row>
-    <row r="111" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J110" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H111" cm="1">
+        <f t="array" ref="H111">INDEX(G:G,ROUNDDOWN(I111, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I111">
         <v>31.000000000000199</v>
       </c>
-    </row>
-    <row r="112" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J111">
+        <f t="shared" si="5"/>
+        <v>31.000000000000199</v>
+      </c>
+    </row>
+    <row r="112" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H112" cm="1">
+        <f t="array" ref="H112">INDEX(G:G,ROUNDDOWN(I112, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I112">
         <v>31.1000000000002</v>
       </c>
-    </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J112" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H113" cm="1">
+        <f t="array" ref="H113">INDEX(G:G,ROUNDDOWN(I113, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I113">
         <v>31.200000000000198</v>
       </c>
-    </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J113" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H114" cm="1">
+        <f t="array" ref="H114">INDEX(G:G,ROUNDDOWN(I114, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I114">
         <v>31.3000000000002</v>
       </c>
-    </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J114" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H115" cm="1">
+        <f t="array" ref="H115">INDEX(G:G,ROUNDDOWN(I115, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I115">
         <v>31.400000000000201</v>
       </c>
-    </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J115" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H116" cm="1">
+        <f t="array" ref="H116">INDEX(G:G,ROUNDDOWN(I116, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I116">
         <v>31.500000000000199</v>
       </c>
-    </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J116" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H117" cm="1">
+        <f t="array" ref="H117">INDEX(G:G,ROUNDDOWN(I117, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I117">
         <v>31.6000000000002</v>
       </c>
-    </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J117" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H118" cm="1">
+        <f t="array" ref="H118">INDEX(G:G,ROUNDDOWN(I118, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I118">
         <v>31.700000000000198</v>
       </c>
-    </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J118" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H119" cm="1">
+        <f t="array" ref="H119">INDEX(G:G,ROUNDDOWN(I119, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I119">
         <v>31.8000000000002</v>
       </c>
-    </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J119" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H120" cm="1">
+        <f t="array" ref="H120">INDEX(G:G,ROUNDDOWN(I120, 0) - 19, 1)</f>
+        <v>0.49999999999999994</v>
+      </c>
       <c r="I120">
         <v>31.900000000000201</v>
       </c>
-    </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J120" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H121" cm="1">
+        <f t="array" ref="H121">INDEX(G:G,ROUNDDOWN(I121, 0) - 19, 1)</f>
+        <v>0.52499999999999991</v>
+      </c>
       <c r="I121">
         <v>32.000000000000199</v>
       </c>
-    </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J121">
+        <f t="shared" si="5"/>
+        <v>32.000000000000199</v>
+      </c>
+    </row>
+    <row r="122" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H122" cm="1">
+        <f t="array" ref="H122">INDEX(G:G,ROUNDDOWN(I122, 0) - 19, 1)</f>
+        <v>0.52499999999999991</v>
+      </c>
       <c r="I122">
         <v>32.1000000000002</v>
       </c>
-    </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J122" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H123" cm="1">
+        <f t="array" ref="H123">INDEX(G:G,ROUNDDOWN(I123, 0) - 19, 1)</f>
+        <v>0.52499999999999991</v>
+      </c>
       <c r="I123">
         <v>32.200000000000202</v>
       </c>
-    </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J123" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H124" cm="1">
+        <f t="array" ref="H124">INDEX(G:G,ROUNDDOWN(I124, 0) - 19, 1)</f>
+        <v>0.52499999999999991</v>
+      </c>
       <c r="I124">
         <v>32.300000000000203</v>
       </c>
-    </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J124" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H125" cm="1">
+        <f t="array" ref="H125">INDEX(G:G,ROUNDDOWN(I125, 0) - 19, 1)</f>
+        <v>0.52499999999999991</v>
+      </c>
       <c r="I125">
         <v>32.400000000000198</v>
       </c>
-    </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J125" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H126" cm="1">
+        <f t="array" ref="H126">INDEX(G:G,ROUNDDOWN(I126, 0) - 19, 1)</f>
+        <v>0.52499999999999991</v>
+      </c>
       <c r="I126">
         <v>32.500000000000199</v>
       </c>
-    </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J126" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H127" cm="1">
+        <f t="array" ref="H127">INDEX(G:G,ROUNDDOWN(I127, 0) - 19, 1)</f>
+        <v>0.52499999999999991</v>
+      </c>
       <c r="I127">
         <v>32.6000000000002</v>
       </c>
-    </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J127" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H128" cm="1">
+        <f t="array" ref="H128">INDEX(G:G,ROUNDDOWN(I128, 0) - 19, 1)</f>
+        <v>0.52499999999999991</v>
+      </c>
       <c r="I128">
         <v>32.700000000000202</v>
       </c>
-    </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J128" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H129" cm="1">
+        <f t="array" ref="H129">INDEX(G:G,ROUNDDOWN(I129, 0) - 19, 1)</f>
+        <v>0.52499999999999991</v>
+      </c>
       <c r="I129">
         <v>32.800000000000203</v>
       </c>
-    </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J129" t="str">
+        <f t="shared" ref="J129:J192" si="6">IF(MOD(ROUND(I129, 2)*10, 10) = 0,I129,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H130" cm="1">
+        <f t="array" ref="H130">INDEX(G:G,ROUNDDOWN(I130, 0) - 19, 1)</f>
+        <v>0.52499999999999991</v>
+      </c>
       <c r="I130">
         <v>32.900000000000198</v>
       </c>
-    </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J130" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H131" cm="1">
+        <f t="array" ref="H131">INDEX(G:G,ROUNDDOWN(I131, 0) - 19, 1)</f>
+        <v>0.57499999999999996</v>
+      </c>
       <c r="I131">
         <v>33.000000000000199</v>
       </c>
-    </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J131">
+        <f t="shared" si="6"/>
+        <v>33.000000000000199</v>
+      </c>
+    </row>
+    <row r="132" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H132" cm="1">
+        <f t="array" ref="H132">INDEX(G:G,ROUNDDOWN(I132, 0) - 19, 1)</f>
+        <v>0.57499999999999996</v>
+      </c>
       <c r="I132">
         <v>33.1000000000002</v>
       </c>
-    </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J132" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H133" cm="1">
+        <f t="array" ref="H133">INDEX(G:G,ROUNDDOWN(I133, 0) - 19, 1)</f>
+        <v>0.57499999999999996</v>
+      </c>
       <c r="I133">
         <v>33.200000000000202</v>
       </c>
-    </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J133" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H134" cm="1">
+        <f t="array" ref="H134">INDEX(G:G,ROUNDDOWN(I134, 0) - 19, 1)</f>
+        <v>0.57499999999999996</v>
+      </c>
       <c r="I134">
         <v>33.300000000000203</v>
       </c>
-    </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J134" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H135" cm="1">
+        <f t="array" ref="H135">INDEX(G:G,ROUNDDOWN(I135, 0) - 19, 1)</f>
+        <v>0.57499999999999996</v>
+      </c>
       <c r="I135">
         <v>33.400000000000198</v>
       </c>
-    </row>
-    <row r="136" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J135" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H136" cm="1">
+        <f t="array" ref="H136">INDEX(G:G,ROUNDDOWN(I136, 0) - 19, 1)</f>
+        <v>0.57499999999999996</v>
+      </c>
       <c r="I136">
         <v>33.500000000000199</v>
       </c>
-    </row>
-    <row r="137" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J136" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H137" cm="1">
+        <f t="array" ref="H137">INDEX(G:G,ROUNDDOWN(I137, 0) - 19, 1)</f>
+        <v>0.57499999999999996</v>
+      </c>
       <c r="I137">
         <v>33.6000000000002</v>
       </c>
-    </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J137" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H138" cm="1">
+        <f t="array" ref="H138">INDEX(G:G,ROUNDDOWN(I138, 0) - 19, 1)</f>
+        <v>0.57499999999999996</v>
+      </c>
       <c r="I138">
         <v>33.700000000000202</v>
       </c>
-    </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J138" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H139" cm="1">
+        <f t="array" ref="H139">INDEX(G:G,ROUNDDOWN(I139, 0) - 19, 1)</f>
+        <v>0.57499999999999996</v>
+      </c>
       <c r="I139">
         <v>33.800000000000203</v>
       </c>
-    </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J139" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H140" cm="1">
+        <f t="array" ref="H140">INDEX(G:G,ROUNDDOWN(I140, 0) - 19, 1)</f>
+        <v>0.57499999999999996</v>
+      </c>
       <c r="I140">
         <v>33.900000000000198</v>
       </c>
-    </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J140" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H141" cm="1">
+        <f t="array" ref="H141">INDEX(G:G,ROUNDDOWN(I141, 0) - 19, 1)</f>
+        <v>0.7</v>
+      </c>
       <c r="I141">
         <v>34.000000000000199</v>
       </c>
-    </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J141">
+        <f t="shared" si="6"/>
+        <v>34.000000000000199</v>
+      </c>
+    </row>
+    <row r="142" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H142" cm="1">
+        <f t="array" ref="H142">INDEX(G:G,ROUNDDOWN(I142, 0) - 19, 1)</f>
+        <v>0.7</v>
+      </c>
       <c r="I142">
         <v>34.1000000000002</v>
       </c>
-    </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J142" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H143" cm="1">
+        <f t="array" ref="H143">INDEX(G:G,ROUNDDOWN(I143, 0) - 19, 1)</f>
+        <v>0.7</v>
+      </c>
       <c r="I143">
         <v>34.200000000000202</v>
       </c>
-    </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J143" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H144" cm="1">
+        <f t="array" ref="H144">INDEX(G:G,ROUNDDOWN(I144, 0) - 19, 1)</f>
+        <v>0.7</v>
+      </c>
       <c r="I144">
         <v>34.300000000000203</v>
       </c>
-    </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J144" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H145" cm="1">
+        <f t="array" ref="H145">INDEX(G:G,ROUNDDOWN(I145, 0) - 19, 1)</f>
+        <v>0.7</v>
+      </c>
       <c r="I145">
         <v>34.400000000000198</v>
       </c>
-    </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J145" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H146" cm="1">
+        <f t="array" ref="H146">INDEX(G:G,ROUNDDOWN(I146, 0) - 19, 1)</f>
+        <v>0.7</v>
+      </c>
       <c r="I146">
         <v>34.500000000000199</v>
       </c>
-    </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J146" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H147" cm="1">
+        <f t="array" ref="H147">INDEX(G:G,ROUNDDOWN(I147, 0) - 19, 1)</f>
+        <v>0.7</v>
+      </c>
       <c r="I147">
         <v>34.6000000000002</v>
       </c>
-    </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J147" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H148" cm="1">
+        <f t="array" ref="H148">INDEX(G:G,ROUNDDOWN(I148, 0) - 19, 1)</f>
+        <v>0.7</v>
+      </c>
       <c r="I148">
         <v>34.700000000000202</v>
       </c>
-    </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J148" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H149" cm="1">
+        <f t="array" ref="H149">INDEX(G:G,ROUNDDOWN(I149, 0) - 19, 1)</f>
+        <v>0.7</v>
+      </c>
       <c r="I149">
         <v>34.800000000000203</v>
       </c>
-    </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J149" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H150" cm="1">
+        <f t="array" ref="H150">INDEX(G:G,ROUNDDOWN(I150, 0) - 19, 1)</f>
+        <v>0.7</v>
+      </c>
       <c r="I150">
         <v>34.900000000000198</v>
       </c>
-    </row>
-    <row r="151" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J150" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H151" cm="1">
+        <f t="array" ref="H151">INDEX(G:G,ROUNDDOWN(I151, 0) - 19, 1)</f>
+        <v>0.72499999999999998</v>
+      </c>
       <c r="I151">
         <v>35.000000000000199</v>
       </c>
-    </row>
-    <row r="152" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J151">
+        <f t="shared" si="6"/>
+        <v>35.000000000000199</v>
+      </c>
+    </row>
+    <row r="152" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H152" cm="1">
+        <f t="array" ref="H152">INDEX(G:G,ROUNDDOWN(I152, 0) - 19, 1)</f>
+        <v>0.72499999999999998</v>
+      </c>
       <c r="I152">
         <v>35.1000000000002</v>
       </c>
-    </row>
-    <row r="153" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J152" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H153" cm="1">
+        <f t="array" ref="H153">INDEX(G:G,ROUNDDOWN(I153, 0) - 19, 1)</f>
+        <v>0.72499999999999998</v>
+      </c>
       <c r="I153">
         <v>35.200000000000202</v>
       </c>
-    </row>
-    <row r="154" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J153" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H154" cm="1">
+        <f t="array" ref="H154">INDEX(G:G,ROUNDDOWN(I154, 0) - 19, 1)</f>
+        <v>0.72499999999999998</v>
+      </c>
       <c r="I154">
         <v>35.300000000000203</v>
       </c>
-    </row>
-    <row r="155" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J154" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H155" cm="1">
+        <f t="array" ref="H155">INDEX(G:G,ROUNDDOWN(I155, 0) - 19, 1)</f>
+        <v>0.72499999999999998</v>
+      </c>
       <c r="I155">
         <v>35.400000000000198</v>
       </c>
-    </row>
-    <row r="156" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J155" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H156" cm="1">
+        <f t="array" ref="H156">INDEX(G:G,ROUNDDOWN(I156, 0) - 19, 1)</f>
+        <v>0.72499999999999998</v>
+      </c>
       <c r="I156">
         <v>35.500000000000199</v>
       </c>
-    </row>
-    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J156" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H157" cm="1">
+        <f t="array" ref="H157">INDEX(G:G,ROUNDDOWN(I157, 0) - 19, 1)</f>
+        <v>0.72499999999999998</v>
+      </c>
       <c r="I157">
         <v>35.6000000000002</v>
       </c>
-    </row>
-    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J157" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H158" cm="1">
+        <f t="array" ref="H158">INDEX(G:G,ROUNDDOWN(I158, 0) - 19, 1)</f>
+        <v>0.72499999999999998</v>
+      </c>
       <c r="I158">
         <v>35.700000000000202</v>
       </c>
-    </row>
-    <row r="159" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J158" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H159" cm="1">
+        <f t="array" ref="H159">INDEX(G:G,ROUNDDOWN(I159, 0) - 19, 1)</f>
+        <v>0.72499999999999998</v>
+      </c>
       <c r="I159">
         <v>35.800000000000203</v>
       </c>
-    </row>
-    <row r="160" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J159" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H160" cm="1">
+        <f t="array" ref="H160">INDEX(G:G,ROUNDDOWN(I160, 0) - 19, 1)</f>
+        <v>0.72499999999999998</v>
+      </c>
       <c r="I160">
         <v>35.900000000000198</v>
       </c>
-    </row>
-    <row r="161" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J160" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H161" cm="1">
+        <f t="array" ref="H161">INDEX(G:G,ROUNDDOWN(I161, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I161">
         <v>36.000000000000199</v>
       </c>
-    </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J161">
+        <f t="shared" si="6"/>
+        <v>36.000000000000199</v>
+      </c>
+    </row>
+    <row r="162" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H162" cm="1">
+        <f t="array" ref="H162">INDEX(G:G,ROUNDDOWN(I162, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I162">
         <v>36.1000000000002</v>
       </c>
-    </row>
-    <row r="163" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J162" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H163" cm="1">
+        <f t="array" ref="H163">INDEX(G:G,ROUNDDOWN(I163, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I163">
         <v>36.200000000000202</v>
       </c>
-    </row>
-    <row r="164" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J163" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H164" cm="1">
+        <f t="array" ref="H164">INDEX(G:G,ROUNDDOWN(I164, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I164">
         <v>36.300000000000203</v>
       </c>
-    </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J164" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H165" cm="1">
+        <f t="array" ref="H165">INDEX(G:G,ROUNDDOWN(I165, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I165">
         <v>36.400000000000198</v>
       </c>
-    </row>
-    <row r="166" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J165" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H166" cm="1">
+        <f t="array" ref="H166">INDEX(G:G,ROUNDDOWN(I166, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I166">
         <v>36.500000000000199</v>
       </c>
-    </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J166" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H167" cm="1">
+        <f t="array" ref="H167">INDEX(G:G,ROUNDDOWN(I167, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I167">
         <v>36.6000000000002</v>
       </c>
-    </row>
-    <row r="168" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J167" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H168" cm="1">
+        <f t="array" ref="H168">INDEX(G:G,ROUNDDOWN(I168, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I168">
         <v>36.700000000000202</v>
       </c>
-    </row>
-    <row r="169" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J168" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H169" cm="1">
+        <f t="array" ref="H169">INDEX(G:G,ROUNDDOWN(I169, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I169">
         <v>36.800000000000203</v>
       </c>
-    </row>
-    <row r="170" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J169" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H170" cm="1">
+        <f t="array" ref="H170">INDEX(G:G,ROUNDDOWN(I170, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I170">
         <v>36.900000000000198</v>
       </c>
-    </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J170" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H171" cm="1">
+        <f t="array" ref="H171">INDEX(G:G,ROUNDDOWN(I171, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I171">
         <v>37.000000000000199</v>
       </c>
-    </row>
-    <row r="172" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J171">
+        <f t="shared" si="6"/>
+        <v>37.000000000000199</v>
+      </c>
+    </row>
+    <row r="172" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H172" cm="1">
+        <f t="array" ref="H172">INDEX(G:G,ROUNDDOWN(I172, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I172">
         <v>37.1000000000002</v>
       </c>
-    </row>
-    <row r="173" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J172" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H173" cm="1">
+        <f t="array" ref="H173">INDEX(G:G,ROUNDDOWN(I173, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I173">
         <v>37.200000000000202</v>
       </c>
-    </row>
-    <row r="174" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J173" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H174" cm="1">
+        <f t="array" ref="H174">INDEX(G:G,ROUNDDOWN(I174, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I174">
         <v>37.300000000000203</v>
       </c>
-    </row>
-    <row r="175" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J174" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H175" cm="1">
+        <f t="array" ref="H175">INDEX(G:G,ROUNDDOWN(I175, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I175">
         <v>37.400000000000198</v>
       </c>
-    </row>
-    <row r="176" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J175" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H176" cm="1">
+        <f t="array" ref="H176">INDEX(G:G,ROUNDDOWN(I176, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I176">
         <v>37.500000000000199</v>
       </c>
-    </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J176" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H177" cm="1">
+        <f t="array" ref="H177">INDEX(G:G,ROUNDDOWN(I177, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I177">
         <v>37.6000000000003</v>
       </c>
-    </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J177" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H178" cm="1">
+        <f t="array" ref="H178">INDEX(G:G,ROUNDDOWN(I178, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I178">
         <v>37.700000000000301</v>
       </c>
-    </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J178" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H179" cm="1">
+        <f t="array" ref="H179">INDEX(G:G,ROUNDDOWN(I179, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I179">
         <v>37.800000000000303</v>
       </c>
-    </row>
-    <row r="180" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J179" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H180" cm="1">
+        <f t="array" ref="H180">INDEX(G:G,ROUNDDOWN(I180, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I180">
         <v>37.900000000000297</v>
       </c>
-    </row>
-    <row r="181" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J180" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H181" cm="1">
+        <f t="array" ref="H181">INDEX(G:G,ROUNDDOWN(I181, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I181">
         <v>38.000000000000298</v>
       </c>
-    </row>
-    <row r="182" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J181">
+        <f t="shared" si="6"/>
+        <v>38.000000000000298</v>
+      </c>
+    </row>
+    <row r="182" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H182" cm="1">
+        <f t="array" ref="H182">INDEX(G:G,ROUNDDOWN(I182, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I182">
         <v>38.1000000000003</v>
       </c>
-    </row>
-    <row r="183" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J182" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H183" cm="1">
+        <f t="array" ref="H183">INDEX(G:G,ROUNDDOWN(I183, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I183">
         <v>38.200000000000301</v>
       </c>
-    </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J183" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H184" cm="1">
+        <f t="array" ref="H184">INDEX(G:G,ROUNDDOWN(I184, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I184">
         <v>38.300000000000303</v>
       </c>
-    </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J184" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H185" cm="1">
+        <f t="array" ref="H185">INDEX(G:G,ROUNDDOWN(I185, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I185">
         <v>38.400000000000297</v>
       </c>
-    </row>
-    <row r="186" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J185" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H186" cm="1">
+        <f t="array" ref="H186">INDEX(G:G,ROUNDDOWN(I186, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I186">
         <v>38.500000000000298</v>
       </c>
-    </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J186" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H187" cm="1">
+        <f t="array" ref="H187">INDEX(G:G,ROUNDDOWN(I187, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I187">
         <v>38.6000000000003</v>
       </c>
-    </row>
-    <row r="188" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J187" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H188" cm="1">
+        <f t="array" ref="H188">INDEX(G:G,ROUNDDOWN(I188, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I188">
         <v>38.700000000000301</v>
       </c>
-    </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J188" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H189" cm="1">
+        <f t="array" ref="H189">INDEX(G:G,ROUNDDOWN(I189, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I189">
         <v>38.800000000000303</v>
       </c>
-    </row>
-    <row r="190" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J189" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H190" cm="1">
+        <f t="array" ref="H190">INDEX(G:G,ROUNDDOWN(I190, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I190">
         <v>38.900000000000297</v>
       </c>
-    </row>
-    <row r="191" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J190" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H191" cm="1">
+        <f t="array" ref="H191">INDEX(G:G,ROUNDDOWN(I191, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I191">
         <v>39.000000000000298</v>
       </c>
-    </row>
-    <row r="192" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J191">
+        <f t="shared" si="6"/>
+        <v>39.000000000000298</v>
+      </c>
+    </row>
+    <row r="192" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H192" cm="1">
+        <f t="array" ref="H192">INDEX(G:G,ROUNDDOWN(I192, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I192">
         <v>39.1000000000003</v>
       </c>
-    </row>
-    <row r="193" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J192" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H193" cm="1">
+        <f t="array" ref="H193">INDEX(G:G,ROUNDDOWN(I193, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I193">
         <v>39.200000000000301</v>
       </c>
-    </row>
-    <row r="194" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J193" t="str">
+        <f t="shared" ref="J193:J230" si="7">IF(MOD(ROUND(I193, 2)*10, 10) = 0,I193,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H194" cm="1">
+        <f t="array" ref="H194">INDEX(G:G,ROUNDDOWN(I194, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I194">
         <v>39.300000000000303</v>
       </c>
-    </row>
-    <row r="195" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J194" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H195" cm="1">
+        <f t="array" ref="H195">INDEX(G:G,ROUNDDOWN(I195, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I195">
         <v>39.400000000000297</v>
       </c>
-    </row>
-    <row r="196" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J195" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H196" cm="1">
+        <f t="array" ref="H196">INDEX(G:G,ROUNDDOWN(I196, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I196">
         <v>39.500000000000298</v>
       </c>
-    </row>
-    <row r="197" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J196" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H197" cm="1">
+        <f t="array" ref="H197">INDEX(G:G,ROUNDDOWN(I197, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I197">
         <v>39.6000000000003</v>
       </c>
-    </row>
-    <row r="198" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J197" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H198" cm="1">
+        <f t="array" ref="H198">INDEX(G:G,ROUNDDOWN(I198, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I198">
         <v>39.700000000000301</v>
       </c>
-    </row>
-    <row r="199" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J198" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H199" cm="1">
+        <f t="array" ref="H199">INDEX(G:G,ROUNDDOWN(I199, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I199">
         <v>39.800000000000303</v>
       </c>
-    </row>
-    <row r="200" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J199" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H200" cm="1">
+        <f t="array" ref="H200">INDEX(G:G,ROUNDDOWN(I200, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I200">
         <v>39.900000000000297</v>
       </c>
-    </row>
-    <row r="201" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J200" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H201" cm="1">
+        <f t="array" ref="H201">INDEX(G:G,ROUNDDOWN(I201, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I201">
         <v>40.000000000000298</v>
       </c>
-    </row>
-    <row r="202" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J201">
+        <f t="shared" si="7"/>
+        <v>40.000000000000298</v>
+      </c>
+    </row>
+    <row r="202" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H202" cm="1">
+        <f t="array" ref="H202">INDEX(G:G,ROUNDDOWN(I202, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I202">
         <v>40.1000000000003</v>
       </c>
-    </row>
-    <row r="203" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J202" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H203" cm="1">
+        <f t="array" ref="H203">INDEX(G:G,ROUNDDOWN(I203, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I203">
         <v>40.200000000000301</v>
       </c>
-    </row>
-    <row r="204" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J203" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H204" cm="1">
+        <f t="array" ref="H204">INDEX(G:G,ROUNDDOWN(I204, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I204">
         <v>40.300000000000303</v>
       </c>
-    </row>
-    <row r="205" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J204" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H205" cm="1">
+        <f t="array" ref="H205">INDEX(G:G,ROUNDDOWN(I205, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I205">
         <v>40.400000000000297</v>
       </c>
-    </row>
-    <row r="206" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J205" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H206" cm="1">
+        <f t="array" ref="H206">INDEX(G:G,ROUNDDOWN(I206, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I206">
         <v>40.500000000000298</v>
       </c>
-    </row>
-    <row r="207" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J206" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H207" cm="1">
+        <f t="array" ref="H207">INDEX(G:G,ROUNDDOWN(I207, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I207">
         <v>40.6000000000003</v>
       </c>
-    </row>
-    <row r="208" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J207" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H208" cm="1">
+        <f t="array" ref="H208">INDEX(G:G,ROUNDDOWN(I208, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I208">
         <v>40.700000000000301</v>
       </c>
-    </row>
-    <row r="209" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J208" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H209" cm="1">
+        <f t="array" ref="H209">INDEX(G:G,ROUNDDOWN(I209, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I209">
         <v>40.800000000000303</v>
       </c>
-    </row>
-    <row r="210" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J209" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H210" cm="1">
+        <f t="array" ref="H210">INDEX(G:G,ROUNDDOWN(I210, 0) - 19, 1)</f>
+        <v>0.75</v>
+      </c>
       <c r="I210">
         <v>40.900000000000297</v>
       </c>
-    </row>
-    <row r="211" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J210" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H211" cm="1">
+        <f t="array" ref="H211">INDEX(G:G,ROUNDDOWN(I211, 0) - 19, 1)</f>
+        <v>0.77500000000000002</v>
+      </c>
       <c r="I211">
         <v>41.000000000000298</v>
       </c>
-    </row>
-    <row r="212" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J211">
+        <f t="shared" si="7"/>
+        <v>41.000000000000298</v>
+      </c>
+    </row>
+    <row r="212" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H212" cm="1">
+        <f t="array" ref="H212">INDEX(G:G,ROUNDDOWN(I212, 0) - 19, 1)</f>
+        <v>0.77500000000000002</v>
+      </c>
       <c r="I212">
         <v>41.1000000000003</v>
       </c>
-    </row>
-    <row r="213" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J212" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H213" cm="1">
+        <f t="array" ref="H213">INDEX(G:G,ROUNDDOWN(I213, 0) - 19, 1)</f>
+        <v>0.77500000000000002</v>
+      </c>
       <c r="I213">
         <v>41.200000000000301</v>
       </c>
-    </row>
-    <row r="214" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J213" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H214" cm="1">
+        <f t="array" ref="H214">INDEX(G:G,ROUNDDOWN(I214, 0) - 19, 1)</f>
+        <v>0.77500000000000002</v>
+      </c>
       <c r="I214">
         <v>41.300000000000303</v>
       </c>
-    </row>
-    <row r="215" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J214" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H215" cm="1">
+        <f t="array" ref="H215">INDEX(G:G,ROUNDDOWN(I215, 0) - 19, 1)</f>
+        <v>0.77500000000000002</v>
+      </c>
       <c r="I215">
         <v>41.400000000000297</v>
       </c>
-    </row>
-    <row r="216" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J215" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H216" cm="1">
+        <f t="array" ref="H216">INDEX(G:G,ROUNDDOWN(I216, 0) - 19, 1)</f>
+        <v>0.77500000000000002</v>
+      </c>
       <c r="I216">
         <v>41.500000000000298</v>
       </c>
-    </row>
-    <row r="217" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J216" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H217" cm="1">
+        <f t="array" ref="H217">INDEX(G:G,ROUNDDOWN(I217, 0) - 19, 1)</f>
+        <v>0.77500000000000002</v>
+      </c>
       <c r="I217">
         <v>41.6000000000003</v>
       </c>
-    </row>
-    <row r="218" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J217" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H218" cm="1">
+        <f t="array" ref="H218">INDEX(G:G,ROUNDDOWN(I218, 0) - 19, 1)</f>
+        <v>0.77500000000000002</v>
+      </c>
       <c r="I218">
         <v>41.700000000000301</v>
       </c>
-    </row>
-    <row r="219" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J218" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H219" cm="1">
+        <f t="array" ref="H219">INDEX(G:G,ROUNDDOWN(I219, 0) - 19, 1)</f>
+        <v>0.77500000000000002</v>
+      </c>
       <c r="I219">
         <v>41.800000000000303</v>
       </c>
-    </row>
-    <row r="220" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J219" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H220" cm="1">
+        <f t="array" ref="H220">INDEX(G:G,ROUNDDOWN(I220, 0) - 19, 1)</f>
+        <v>0.77500000000000002</v>
+      </c>
       <c r="I220">
         <v>41.900000000000297</v>
       </c>
-    </row>
-    <row r="221" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J220" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H221" cm="1">
+        <f t="array" ref="H221">INDEX(G:G,ROUNDDOWN(I221, 0) - 19, 1)</f>
+        <v>0.875</v>
+      </c>
       <c r="I221">
         <v>42.000000000000298</v>
       </c>
-    </row>
-    <row r="222" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J221">
+        <f t="shared" si="7"/>
+        <v>42.000000000000298</v>
+      </c>
+    </row>
+    <row r="222" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H222" cm="1">
+        <f t="array" ref="H222">INDEX(G:G,ROUNDDOWN(I222, 0) - 19, 1)</f>
+        <v>0.875</v>
+      </c>
       <c r="I222">
         <v>42.1000000000003</v>
       </c>
-    </row>
-    <row r="223" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J222" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H223" cm="1">
+        <f t="array" ref="H223">INDEX(G:G,ROUNDDOWN(I223, 0) - 19, 1)</f>
+        <v>0.875</v>
+      </c>
       <c r="I223">
         <v>42.200000000000301</v>
       </c>
-    </row>
-    <row r="224" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J223" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H224" cm="1">
+        <f t="array" ref="H224">INDEX(G:G,ROUNDDOWN(I224, 0) - 19, 1)</f>
+        <v>0.875</v>
+      </c>
       <c r="I224">
         <v>42.300000000000303</v>
       </c>
-    </row>
-    <row r="225" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J224" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H225" cm="1">
+        <f t="array" ref="H225">INDEX(G:G,ROUNDDOWN(I225, 0) - 19, 1)</f>
+        <v>0.875</v>
+      </c>
       <c r="I225">
         <v>42.400000000000297</v>
       </c>
-    </row>
-    <row r="226" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J225" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H226" cm="1">
+        <f t="array" ref="H226">INDEX(G:G,ROUNDDOWN(I226, 0) - 19, 1)</f>
+        <v>0.875</v>
+      </c>
       <c r="I226">
         <v>42.500000000000298</v>
       </c>
-    </row>
-    <row r="227" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J226" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H227" cm="1">
+        <f t="array" ref="H227">INDEX(G:G,ROUNDDOWN(I227, 0) - 19, 1)</f>
+        <v>0.875</v>
+      </c>
       <c r="I227">
         <v>42.6000000000003</v>
       </c>
-    </row>
-    <row r="228" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J227" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H228" cm="1">
+        <f t="array" ref="H228">INDEX(G:G,ROUNDDOWN(I228, 0) - 19, 1)</f>
+        <v>0.875</v>
+      </c>
       <c r="I228">
         <v>42.700000000000301</v>
       </c>
-    </row>
-    <row r="229" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J228" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H229" cm="1">
+        <f t="array" ref="H229">INDEX(G:G,ROUNDDOWN(I229, 0) - 19, 1)</f>
+        <v>0.875</v>
+      </c>
       <c r="I229">
         <v>42.800000000000303</v>
       </c>
-    </row>
-    <row r="230" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J229" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H230" cm="1">
+        <f t="array" ref="H230">INDEX(G:G,ROUNDDOWN(I230, 0) - 19, 1)</f>
+        <v>0.875</v>
+      </c>
       <c r="I230">
         <v>42.900000000000297</v>
       </c>
-    </row>
-    <row r="231" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J230" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H231" cm="1">
+        <f t="array" ref="H231">INDEX(G:G,ROUNDDOWN(I231, 0) - 19, 1)</f>
+        <v>0.97499999999999998</v>
+      </c>
       <c r="I231">
         <v>43.000000000000298</v>
       </c>
-    </row>
-    <row r="232" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J231">
+        <f>IF(MOD(ROUND(I231, 2)*10, 10) = 0,I231,"")</f>
+        <v>43.000000000000298</v>
+      </c>
+    </row>
+    <row r="232" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H232" cm="1">
+        <f t="array" ref="H232">INDEX(G:G,ROUNDDOWN(I232, 0) - 19, 1)</f>
+        <v>0.97499999999999998</v>
+      </c>
       <c r="I232">
         <v>43.1000000000003</v>
       </c>
-    </row>
-    <row r="233" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J232" t="str">
+        <f t="shared" ref="J232:J250" si="8">IF(MOD(ROUND(I232, 2)*10, 10) = 0,I232,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H233" cm="1">
+        <f t="array" ref="H233">INDEX(G:G,ROUNDDOWN(I233, 0) - 19, 1)</f>
+        <v>0.97499999999999998</v>
+      </c>
       <c r="I233">
         <v>43.200000000000301</v>
       </c>
-    </row>
-    <row r="234" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J233" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H234" cm="1">
+        <f t="array" ref="H234">INDEX(G:G,ROUNDDOWN(I234, 0) - 19, 1)</f>
+        <v>0.97499999999999998</v>
+      </c>
       <c r="I234">
         <v>43.300000000000303</v>
       </c>
-    </row>
-    <row r="235" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J234" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H235" cm="1">
+        <f t="array" ref="H235">INDEX(G:G,ROUNDDOWN(I235, 0) - 19, 1)</f>
+        <v>0.97499999999999998</v>
+      </c>
       <c r="I235">
         <v>43.400000000000297</v>
       </c>
-    </row>
-    <row r="236" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J235" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H236" cm="1">
+        <f t="array" ref="H236">INDEX(G:G,ROUNDDOWN(I236, 0) - 19, 1)</f>
+        <v>0.97499999999999998</v>
+      </c>
       <c r="I236">
         <v>43.500000000000298</v>
       </c>
-    </row>
-    <row r="237" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J236" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H237" cm="1">
+        <f t="array" ref="H237">INDEX(G:G,ROUNDDOWN(I237, 0) - 19, 1)</f>
+        <v>0.97499999999999998</v>
+      </c>
       <c r="I237">
         <v>43.6000000000003</v>
       </c>
-    </row>
-    <row r="238" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J237" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H238" cm="1">
+        <f t="array" ref="H238">INDEX(G:G,ROUNDDOWN(I238, 0) - 19, 1)</f>
+        <v>0.97499999999999998</v>
+      </c>
       <c r="I238">
         <v>43.700000000000301</v>
       </c>
-    </row>
-    <row r="239" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J238" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H239" cm="1">
+        <f t="array" ref="H239">INDEX(G:G,ROUNDDOWN(I239, 0) - 19, 1)</f>
+        <v>0.97499999999999998</v>
+      </c>
       <c r="I239">
         <v>43.800000000000303</v>
       </c>
-    </row>
-    <row r="240" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J239" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H240" cm="1">
+        <f t="array" ref="H240">INDEX(G:G,ROUNDDOWN(I240, 0) - 19, 1)</f>
+        <v>0.97499999999999998</v>
+      </c>
       <c r="I240">
         <v>43.900000000000297</v>
       </c>
-    </row>
-    <row r="241" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J240" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H241" cm="1">
+        <f t="array" ref="H241">INDEX(G:G,ROUNDDOWN(I241, 0) - 19, 1)</f>
+        <v>1</v>
+      </c>
       <c r="I241">
         <v>44.000000000000298</v>
       </c>
-    </row>
-    <row r="242" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J241">
+        <f t="shared" si="8"/>
+        <v>44.000000000000298</v>
+      </c>
+    </row>
+    <row r="242" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H242" cm="1">
+        <f t="array" ref="H242">INDEX(G:G,ROUNDDOWN(I242, 0) - 19, 1)</f>
+        <v>1</v>
+      </c>
       <c r="I242">
         <v>44.1000000000003</v>
       </c>
-    </row>
-    <row r="243" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J242" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H243" cm="1">
+        <f t="array" ref="H243">INDEX(G:G,ROUNDDOWN(I243, 0) - 19, 1)</f>
+        <v>1</v>
+      </c>
       <c r="I243">
         <v>44.200000000000301</v>
       </c>
-    </row>
-    <row r="244" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J243" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H244" cm="1">
+        <f t="array" ref="H244">INDEX(G:G,ROUNDDOWN(I244, 0) - 19, 1)</f>
+        <v>1</v>
+      </c>
       <c r="I244">
         <v>44.300000000000303</v>
       </c>
-    </row>
-    <row r="245" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J244" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H245" cm="1">
+        <f t="array" ref="H245">INDEX(G:G,ROUNDDOWN(I245, 0) - 19, 1)</f>
+        <v>1</v>
+      </c>
       <c r="I245">
         <v>44.400000000000297</v>
       </c>
-    </row>
-    <row r="246" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J245" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H246" cm="1">
+        <f t="array" ref="H246">INDEX(G:G,ROUNDDOWN(I246, 0) - 19, 1)</f>
+        <v>1</v>
+      </c>
       <c r="I246">
         <v>44.500000000000298</v>
       </c>
-    </row>
-    <row r="247" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I247">
-        <v>44.6000000000003</v>
-      </c>
-    </row>
-    <row r="248" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I248">
-        <v>44.700000000000401</v>
-      </c>
-    </row>
-    <row r="249" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I249">
-        <v>44.800000000000402</v>
-      </c>
-    </row>
-    <row r="250" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I250">
-        <v>44.900000000000396</v>
-      </c>
-    </row>
-    <row r="251" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I251">
-        <v>45.000000000000398</v>
+      <c r="J246" t="str">
+        <f t="shared" si="8"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -5156,118 +8939,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{46DC9FEE-C1DA-4D80-B654-5E3F8C3CE60B}">
-          <x14:colorSeries rgb="FF000000"/>
-          <x14:colorNegative rgb="FF0070C0"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FF0070C0"/>
-          <x14:colorLast rgb="FF0070C0"/>
-          <x14:colorHigh rgb="FF0070C0"/>
-          <x14:colorLow rgb="FF0070C0"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Лист1!D1:D1</xm:f>
-              <xm:sqref>C1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D2:D2</xm:f>
-              <xm:sqref>C2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D3:D3</xm:f>
-              <xm:sqref>C3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D4:D4</xm:f>
-              <xm:sqref>C4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D5:D5</xm:f>
-              <xm:sqref>C5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D6:D6</xm:f>
-              <xm:sqref>C6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D7:D7</xm:f>
-              <xm:sqref>C7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D8:D8</xm:f>
-              <xm:sqref>C8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D9:D9</xm:f>
-              <xm:sqref>C9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D10:D10</xm:f>
-              <xm:sqref>C10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D11:D11</xm:f>
-              <xm:sqref>C11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D12:D12</xm:f>
-              <xm:sqref>C12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D13:D13</xm:f>
-              <xm:sqref>C13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D14:D14</xm:f>
-              <xm:sqref>C14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D15:D15</xm:f>
-              <xm:sqref>C15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D16:D16</xm:f>
-              <xm:sqref>C16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D17:D17</xm:f>
-              <xm:sqref>C17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D18:D18</xm:f>
-              <xm:sqref>C18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D19:D19</xm:f>
-              <xm:sqref>C19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D20:D20</xm:f>
-              <xm:sqref>C20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D21:D21</xm:f>
-              <xm:sqref>C21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D22:D22</xm:f>
-              <xm:sqref>C22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D23:D23</xm:f>
-              <xm:sqref>C23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D24:D24</xm:f>
-              <xm:sqref>C24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D25:D25</xm:f>
-              <xm:sqref>C25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{045A7342-F66E-487E-9827-7486DF49C0CF}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -5444,6 +9115,118 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{46DC9FEE-C1DA-4D80-B654-5E3F8C3CE60B}">
+          <x14:colorSeries rgb="FF000000"/>
+          <x14:colorNegative rgb="FF0070C0"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FF0070C0"/>
+          <x14:colorLast rgb="FF0070C0"/>
+          <x14:colorHigh rgb="FF0070C0"/>
+          <x14:colorLow rgb="FF0070C0"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Лист1!D1:D1</xm:f>
+              <xm:sqref>C1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D2:D2</xm:f>
+              <xm:sqref>C2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D3:D3</xm:f>
+              <xm:sqref>C3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D4:D4</xm:f>
+              <xm:sqref>C4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D5:D5</xm:f>
+              <xm:sqref>C5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D6:D6</xm:f>
+              <xm:sqref>C6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D7:D7</xm:f>
+              <xm:sqref>C7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D8:D8</xm:f>
+              <xm:sqref>C8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D9:D9</xm:f>
+              <xm:sqref>C9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D10:D10</xm:f>
+              <xm:sqref>C10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D11:D11</xm:f>
+              <xm:sqref>C11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D12:D12</xm:f>
+              <xm:sqref>C12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D13:D13</xm:f>
+              <xm:sqref>C13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D14:D14</xm:f>
+              <xm:sqref>C14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D15:D15</xm:f>
+              <xm:sqref>C15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D16:D16</xm:f>
+              <xm:sqref>C16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D17:D17</xm:f>
+              <xm:sqref>C17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D18:D18</xm:f>
+              <xm:sqref>C18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D19:D19</xm:f>
+              <xm:sqref>C19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D20:D20</xm:f>
+              <xm:sqref>C20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D21:D21</xm:f>
+              <xm:sqref>C21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D22:D22</xm:f>
+              <xm:sqref>C22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D23:D23</xm:f>
+              <xm:sqref>C23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D24:D24</xm:f>
+              <xm:sqref>C24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D25:D25</xm:f>
+              <xm:sqref>C25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -5452,10 +9235,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB08E532-D0CA-489A-B997-F4C37D3C414E}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5463,7 +9246,7 @@
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>3.5</v>
       </c>
@@ -5475,7 +9258,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -5486,51 +9269,86 @@
         <f>MAX(A:A)</f>
         <v>10.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>6</v>
+      </c>
+      <c r="T2">
+        <v>7</v>
+      </c>
+      <c r="U2">
+        <v>8</v>
+      </c>
+      <c r="V2">
+        <v>9</v>
+      </c>
+      <c r="W2">
+        <v>10</v>
+      </c>
+      <c r="X2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>11</v>
+      <c r="D4" s="5" t="str">
+        <f>_xlfn.CONCAT(P2, " - ",  Q2)</f>
+        <v>3 - 4</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" ref="E4:K4" si="0">_xlfn.CONCAT(Q2, " - ",  R2)</f>
+        <v>4 - 5</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>5 - 6</v>
+      </c>
+      <c r="G4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>6 - 7</v>
+      </c>
+      <c r="H4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>7 - 8</v>
+      </c>
+      <c r="I4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>8 - 9</v>
+      </c>
+      <c r="J4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>9 - 10</v>
+      </c>
+      <c r="K4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>10 - 11</v>
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9.5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3">
         <f>COUNTIF($A:$A,"&gt;3") - COUNTIF($A:$A,"&gt;4")</f>
@@ -5565,57 +9383,57 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10.7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10.3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5.7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8.1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7.1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8.1</v>
       </c>
@@ -5792,6 +9610,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tasks/Lab_01/LAB_01.xlsx
+++ b/Tasks/Lab_01/LAB_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SDR\Tasks\Lab_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E471340C-6390-4504-82CF-5A2BA802B7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483EC3BB-B156-416F-B03A-618F41B8D727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3510" yWindow="120" windowWidth="21600" windowHeight="14685" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -4304,13 +4304,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
+      <xdr:colOff>23812</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -4682,8 +4682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W246"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE21" sqref="AE21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8746,7 +8746,7 @@
         <v>43.1000000000003</v>
       </c>
       <c r="J232" t="str">
-        <f t="shared" ref="J232:J250" si="8">IF(MOD(ROUND(I232, 2)*10, 10) = 0,I232,"")</f>
+        <f t="shared" ref="J232:J246" si="8">IF(MOD(ROUND(I232, 2)*10, 10) = 0,I232,"")</f>
         <v/>
       </c>
     </row>
@@ -8939,6 +8939,118 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{46DC9FEE-C1DA-4D80-B654-5E3F8C3CE60B}">
+          <x14:colorSeries rgb="FF000000"/>
+          <x14:colorNegative rgb="FF0070C0"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FF0070C0"/>
+          <x14:colorLast rgb="FF0070C0"/>
+          <x14:colorHigh rgb="FF0070C0"/>
+          <x14:colorLow rgb="FF0070C0"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Лист1!D1:D1</xm:f>
+              <xm:sqref>C1</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D2:D2</xm:f>
+              <xm:sqref>C2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D3:D3</xm:f>
+              <xm:sqref>C3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D4:D4</xm:f>
+              <xm:sqref>C4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D5:D5</xm:f>
+              <xm:sqref>C5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D6:D6</xm:f>
+              <xm:sqref>C6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D7:D7</xm:f>
+              <xm:sqref>C7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D8:D8</xm:f>
+              <xm:sqref>C8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D9:D9</xm:f>
+              <xm:sqref>C9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D10:D10</xm:f>
+              <xm:sqref>C10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D11:D11</xm:f>
+              <xm:sqref>C11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D12:D12</xm:f>
+              <xm:sqref>C12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D13:D13</xm:f>
+              <xm:sqref>C13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D14:D14</xm:f>
+              <xm:sqref>C14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D15:D15</xm:f>
+              <xm:sqref>C15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D16:D16</xm:f>
+              <xm:sqref>C16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D17:D17</xm:f>
+              <xm:sqref>C17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D18:D18</xm:f>
+              <xm:sqref>C18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D19:D19</xm:f>
+              <xm:sqref>C19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D20:D20</xm:f>
+              <xm:sqref>C20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D21:D21</xm:f>
+              <xm:sqref>C21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D22:D22</xm:f>
+              <xm:sqref>C22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D23:D23</xm:f>
+              <xm:sqref>C23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D24:D24</xm:f>
+              <xm:sqref>C24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!D25:D25</xm:f>
+              <xm:sqref>C25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{045A7342-F66E-487E-9827-7486DF49C0CF}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -9115,118 +9227,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{46DC9FEE-C1DA-4D80-B654-5E3F8C3CE60B}">
-          <x14:colorSeries rgb="FF000000"/>
-          <x14:colorNegative rgb="FF0070C0"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FF0070C0"/>
-          <x14:colorLast rgb="FF0070C0"/>
-          <x14:colorHigh rgb="FF0070C0"/>
-          <x14:colorLow rgb="FF0070C0"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Лист1!D1:D1</xm:f>
-              <xm:sqref>C1</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D2:D2</xm:f>
-              <xm:sqref>C2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D3:D3</xm:f>
-              <xm:sqref>C3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D4:D4</xm:f>
-              <xm:sqref>C4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D5:D5</xm:f>
-              <xm:sqref>C5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D6:D6</xm:f>
-              <xm:sqref>C6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D7:D7</xm:f>
-              <xm:sqref>C7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D8:D8</xm:f>
-              <xm:sqref>C8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D9:D9</xm:f>
-              <xm:sqref>C9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D10:D10</xm:f>
-              <xm:sqref>C10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D11:D11</xm:f>
-              <xm:sqref>C11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D12:D12</xm:f>
-              <xm:sqref>C12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D13:D13</xm:f>
-              <xm:sqref>C13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D14:D14</xm:f>
-              <xm:sqref>C14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D15:D15</xm:f>
-              <xm:sqref>C15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D16:D16</xm:f>
-              <xm:sqref>C16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D17:D17</xm:f>
-              <xm:sqref>C17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D18:D18</xm:f>
-              <xm:sqref>C18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D19:D19</xm:f>
-              <xm:sqref>C19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D20:D20</xm:f>
-              <xm:sqref>C20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D21:D21</xm:f>
-              <xm:sqref>C21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D22:D22</xm:f>
-              <xm:sqref>C22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D23:D23</xm:f>
-              <xm:sqref>C23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D24:D24</xm:f>
-              <xm:sqref>C24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!D25:D25</xm:f>
-              <xm:sqref>C25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -9238,7 +9238,7 @@
   <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
